--- a/voyage_voyage.xlsx
+++ b/voyage_voyage.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AELION\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -831,9 +826,6 @@
     <t>genre</t>
   </si>
   <si>
-    <t>voyage temporelle par itération</t>
-  </si>
-  <si>
     <t>métempsycose temporelle</t>
   </si>
   <si>
@@ -847,12 +839,15 @@
   </si>
   <si>
     <t>Titre VO</t>
+  </si>
+  <si>
+    <t>voyage par itération</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1156,7 +1151,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1166,24 +1161,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
         <v>272</v>
       </c>
-      <c r="C2" t="s">
-        <v>273</v>
-      </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>267</v>
@@ -1203,7 +1198,7 @@
         <v>1993</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1220,7 +1215,7 @@
         <v>2006</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1237,7 +1232,7 @@
         <v>2007</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1254,7 +1249,7 @@
         <v>2010</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1266,7 @@
         <v>2011</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1288,7 +1283,7 @@
         <v>2011</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1305,7 +1300,7 @@
         <v>2014</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1322,7 +1317,7 @@
         <v>2017</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1339,7 +1334,7 @@
         <v>2017</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1356,7 +1351,7 @@
         <v>2018</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1373,7 +1368,7 @@
         <v>1986</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -1390,7 +1385,7 @@
         <v>2004</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
@@ -1407,7 +1402,7 @@
         <v>2004</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1424,7 +1419,7 @@
         <v>2012</v>
       </c>
       <c r="F17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -1441,7 +1436,7 @@
         <v>2013</v>
       </c>
       <c r="F18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1458,7 +1453,7 @@
         <v>2014</v>
       </c>
       <c r="F19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1475,7 +1470,7 @@
         <v>1997</v>
       </c>
       <c r="F20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1492,7 +1487,7 @@
         <v>2009</v>
       </c>
       <c r="F21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/voyage_voyage.xlsx
+++ b/voyage_voyage.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="280">
   <si>
     <t>Un jour sans fin</t>
   </si>
@@ -842,6 +843,24 @@
   </si>
   <si>
     <t>voyage par itération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si tu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce message </t>
+  </si>
+  <si>
+    <t>cri</t>
+  </si>
+  <si>
+    <t>3ur3k4</t>
+  </si>
+  <si>
+    <t>bobby</t>
   </si>
 </sst>
 </file>
@@ -877,8 +896,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
@@ -1500,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2722,4 +2742,42 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="CBEB" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>